--- a/QALD9-Plus-testing/zero-shot-entity-aligned/zero-shot-entity-aligned-wikidata-dbpedia/zero_shot_llama_dbpedia_results_analysis.xlsx
+++ b/QALD9-Plus-testing/zero-shot-entity-aligned/zero-shot-entity-aligned-wikidata-dbpedia/zero_shot_llama_dbpedia_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\zero-shot-entity-aligned\zero-shot-entity-aligned-wikidata-dbpedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3319AB99-3BCF-404C-949B-80456B585AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3679BB10-C641-4256-8F4D-CCEC56B7C4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="444">
   <si>
     <t>Question</t>
   </si>
@@ -349,303 +349,9 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; &lt;http://dbpedia.org/ontology/founder&gt; ?o1 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbp:Musical ?title . ?uri dbp:MusicBy &lt;http://dbpedia.org/resource/Elton_John&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { dbpedia-owl:Skype dbpedia-owl:developer ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:SoccerClub dbpedia:German_Bundesliga . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?actor WHERE { ?movie dbpedia-owl:director dbpedia-resource:William_Shatner . ?movie dbpedia-owl:actor ?actor . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:classification dbo:Mountain ; dbp:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film dbo:Film ?filmURI . ?film dbo:starring &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; dbpedia:deathDate ?date . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Burton&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:resource/Minecraft dbpedia:developer ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT ?val WHERE { &lt;http://dbpedia.org/resource/The_Lego_Movie&gt; &lt;http://dbpedia.org/ontology/budget&gt; ?val }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?label WHERE { db:Elvis_Presley dbpedia:artist ?artist_uri . ?artist_uri dbpedia:releaseDate ?release_date . ?album_uri dbpedia:releaseDate ?release_date . ?album_uri dbpedia:recordLabel ?record_label . ?record_label dbpedia:label ?label . FILTER (?release_date = (SELECT ?release_date FROM {db:Elvis_Presley dbpedia:releaseDate ?release_date} LIMIT 1)) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { dbpedia-owl:Toy_Story dbpedia-owl:runtime ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:occupation dbpedia:Bandleader ; dbpedia:instrument dbpedia:Trumpet . }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Film&gt; ?film . ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt; . ?uri &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?year WHERE { &lt;http://dbpedia.org/resource/Rachel_Stevens&gt; dbo:birthYear ?birthYear . BIND(YEAR(?birthYear) as ?year) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?s dbpedia-owl:deathCause ?uri . } GROUP BY ?uri ORDER BY DESC(COUNT(DISTINCT ?s)) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?num WHERE { &lt;http://dbpedia.org/resource/Yokohama_Marine_Tower&gt; dbo:height ?num . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Mountain ; dbo:locatedInArea &lt;http://dbpedia.org/resource/Italy&gt; . OPTIONAL { ?uri dbo:elevation ?elevation . } } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Albert_Einstein&gt; &lt;http://dbpedia.org/ontology/doctoralAdvisor&gt; ?uri}</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?business WHERE { ?business a dbpedia-owl:Company . ?business dbpedia-owl:owner dbpedia:Donald_Trump . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?o1 WHERE { &lt;http://dbpedia.org/resource/Tom_Cruise&gt; &lt;http://dbpedia.org/ontology/spouse&gt; ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { db: Eurasia dbo: populationTotal ?val }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?author WHERE { dbpedia:The_Interpretation_of_Dreams dbpedia-ontology:author ?author . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia2:John_Adams dbpedia2:birthDate ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbprop: &lt;http://dbpedia.org/property/&gt; SELECT ?population WHERE { dbpedia:European_Union dbprop:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/China&gt; &lt;http://dbpedia.org/ontology/currency&gt; ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbprop: &lt;http://dbpedia.org/property/&gt; SELECT STRFTIME("%Y-%m-%d", ?deathDate) AS ?deathDate WHERE { dbpedia:William_Shakespeare ?deathDate } AND FILTER regex(?deathDate, "^\\d{4}-\\d{2}-\\d{2}$")</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdfs:subClassOf* dbp:Rocket . ?uri dbp:launchSite db:Baikonur_Cosmodrome . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:country &lt;http://dbpedia.org/resource/Japan&gt;; dbpedia-owl:Island true . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/World_of_Warcraft&gt; dbpedia:developer ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Company&gt; . ?uri &lt;http://dbpedia.org/ontology/industry&gt; ?industry . ?industry &lt;http://dbpedia.org/ontology/wikiPageID&gt; "Q39809@" . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia:&lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { dbpedia:Angela_Merkel dbpedia-ontology:almaMater ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?type dbpedia-ontology:subclassOf* dbpedia-ontology:TelevisionShow . ?uri dbpedia-ontology:starring &lt;http://dbpedia.org/resource/Neil_Patrick_Harris&gt; . ?uri rdf:type ?type . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?s WHERE { ?s &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Tom_Cruise&gt; . ?s &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/Film&gt; . ?s a &lt;http://dbpedia.org/ontology/Film&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT ?country WHERE { db:Mount_Everest dbp:locatedInArea ?location . ?location dbp:Country ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:John_F._Kennedy dbpedia-ontology:deathPlace ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; &lt;http://dbpedia.org/ontology/crosses&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:Swimmer ?swimmer ; dbpedia-owl:birthPlace &lt;http://dbpedia.org/resource/Moscow&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?s1 WHERE { ?s1 &lt;http://dbpedia.org/ontology/Film&gt; &lt;http://dbpedia.org/resource/Alec_Guinness&gt; . ?s1 &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Alec_Guinness&gt; . ?s1 &lt;http://dbpedia.org/ontology/releaseDate&gt; ?o1 . } order by DESC(?o1) limit 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?max dbpedia-owl:mountain dbpedia-owl:Mountain . ?max dbpedia-owl:elevation ?maxElevation . FILTER NOT EXISTS { ?res dbpedia-owl:mountain dbpedia-owl:Mountain . ?res dbpedia-owl:elevation ?elevation . ?res dbpedia-owl:location dbpedia-owl:Country dbpedia-owl:UnitedKingdom . FILTER (?elevation &gt; ?maxElevation) } FILTER (?maxElevation &gt; ?elevation) } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX db: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?val WHERE { dbpedia:cairo dbpedia-owl:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri a dbo:Person . ?uri dbo:birthPlace &lt;http://dbpedia.org/resource/Heraklion&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?uri) as ?c) WHERE { dbpedia-resource:Benjamin_Franklin dbpedia-owl:child ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/#&gt; SELECT ?elevation WHERE { &lt;http://dbpedia.org/resource/Düsseldorf_Airport&gt; dbpedia-owl:elevation ?elevation . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE { dbr:Mecca dbo:country ?country . ?country rdf:type dbo:Country . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbpedia: Claudia_Schiffer dbpedia-owl:height ?val }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?author WHERE { &lt;http://dbpedia.org/resource/The_Pillars_of_the_Earth&gt; dbo:author ?author . }</t>
-  </si>
-  <si>
     <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Lou_Reed&gt; &lt;http://dbpedia.org/ontology/genre&gt; ?uri }</t>
   </si>
   <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?birthPlace WHERE { dbpedia:Frank_Sinatra dbpedia-owl:birthPlace ?birthPlace . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT ?city WHERE { ?city dbpedia:City [] . FILTER NOT EXISTS { ?other_city dbpedia:City [] . ?other_city dbpedia:populationTotal ?other_population . FILTER (?other_population &lt; ?population) } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:creator &lt;http://dbpedia.org/resource/Walt_Disney&gt; . ?uri a dbpedia-owl:TelevisionShow . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?holiday WHERE { ?holiday a dbpedia-owl:Holiday . ?holiday dbpedia-owl:country dbpedia-resource:Sweden . ?holiday dbpedia-owl:wikidata ?wikidata_id . FILTER (regex(str(?wikidata_id), "Q1445650")). FILTER (regex(str(?holiday), "Sweden")) ?wikidata_id wdt:P31 wd:Q1401522 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Apple_Inc. dbpedia:netIncome ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { dbpedia:Abraham_Lincoln dbpedia:deathPlace ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia-owl:Himalayas dbpedia-owl:country ?country . ?country dbpedia-owl:capital ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { &lt;http://dbpedia.org/resource/Limerick_Lake&gt; dbpedia-owl:country ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT ?val WHERE { &lt;http://dbpedia.org/resource/Michael_Jordan&gt; &lt;http://dbpedia.org/ontology/height&gt; ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?film db:director db:Clint_Eastwood ; db:starring ?uri . FILTER (?film = ?uri) }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri dbpedia:currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?val WHERE { dbpedia:Iraq dbpedia-owl:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?holiday WHERE { ?holiday a ?type . ?type owl:sameAs &lt;http://www.wikidata.org/entity/Q1445650&gt; . ?holiday dbpedia-owl:Holiday . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbp:PoliticalParty dbpedia:Greece ; dbp:ideology dbpedia:Pro-Europeanism . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?actor ?date WHERE { &lt;http://dbpedia.org/resource/Charmed&gt; &lt;http://dbpedia.org/ontology/starring&gt; ?actor . ?actor &lt;http://dbpedia.org/ontology/birthDate&gt; ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/The_Three_Dancers&gt; db:movement ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/agent&gt; &lt;http://dbpedia.org/ontology/Actor&gt; . { ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt; &lt;http://dbpedia.org/resource/Germany&gt; . } UNION { ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt;/&lt;http://dbpedia.org/ontology/country&gt; &lt;http://dbpedia.org/resource/Germany&gt; . } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; dbo:architect ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; &lt;http://dbpedia.org/ontology/composer&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film WHERE { ?film dbpedia-owl:director &lt;http://dbpedia.org/resource/Francis_Ford_Coppola&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?name WHERE { ?s dbpedia-owl:birthName ?name . FILTER (?s = &lt;http://dbpedia.org/resource/Adele&gt;) . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/artist&gt; &lt;http://dbpedia.org/resource/Queen_(band)&gt; . ?uri &lt;http://dbpedia.org/ontology/Album&gt; ?album . ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?date . FILTER (ISIRI(?date)) FILTER (NOT EXISTS { ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?earlierDate . FILTER (?earlierDate &lt; ?date) }) } ORDER BY ?date LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Czech_Republic&gt; &lt;http://dbpedia.org/ontology/currency&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { { ?uri db:birthPlace &lt;http://dbpedia.org/resource/Vienna&gt; . ?uri db:deathPlace &lt;http://dbpedia.org/resource/Berlin&gt; . } UNION { ?uri db:birthPlace ?birthPlace . ?birthPlace rdfs:label "Vienna"@en . ?uri db:deathPlace ?deathPlace . ?deathPlace rdfs:label "Berlin"@en . } }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri db:Bridges db:crosses &lt;http://dbpedia.org/resource/Seine&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri (COUNT(?y) AS ?count) WHERE { ?uri db:occupation &lt;http://dbpedia.org/resource/Musician&gt; . ?x db:author ?uri . ?x db:Book ?y . } GROUP BY ?uri ORDER BY DESC(?count) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . ?uri &lt;http://dbpedia.org/ontology/creator&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbp:Writer ?award . ?award dbpedia:label ?label . FILTER (regex(?label, "Nobel Prize in Literature")) }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; &lt;http://dbpedia.org/ontology/discoverer&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { ?res db:occupation dbp:Bandleader . ?res db:instrument dbp:Trumpet . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; . ?uri &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER(?height &gt; "200") }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri db:Film ?film_stmt . ?film_stmt db:starring ?starring_stmt1 . ?starring_stmt1 db:actor &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?film_stmt db:starring ?starring_stmt2 . ?starring_stmt2 db:actor &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?o1 WHERE { &lt;http://dbpedia.org/resource/Canada&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:SoccerPlayer ; dbo:birthPlace ?birthPlace . ?birthPlace rdfs:seeAlso &lt;http://dbpedia.org/resource/Malta&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Cameroon&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub dbpedia-owl:ProgrammingLanguage ?sub-property . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Astronaut&gt; &lt;http://dbpedia.org/resource/Cosmonaut&gt; . { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Family_Guy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?population WHERE { dbpedia:Mexico_City dbpedia-owl:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?creator WHERE { dbpedia-ontology:Batman dbpedia-ontology:creator ?creator . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?number WHERE { &lt;http://dbpedia.org/resource/Australia&gt; dbpedia-owl:capital ?capital . ?capital dbpedia-owl:populationTotal ?number . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/North_Rhine-Westphalia&gt; dbpedia-owl:areaTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?numberOfEmployees WHERE { dbp:IBM dbo:numberOfEmployees ?numberOfEmployees . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?value WHERE { dbpedia:Resource/Pulp_Fiction dbpedia-ontology:budget ?value . }</t>
-  </si>
-  <si>
-    <t>SELECT ?film WHERE { ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Jesse_Eisenberg&gt; . ?film rdf:type &lt;http://dbpedia.org/ontology/Film&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?type dbpedia-owl:subclassOf &lt;http://dbpedia.org/ontology/Film&gt; . ?uri dbpedia-owl:country &lt;http://dbpedia.org/resource/Denmark&gt; . FILTER(?type = &lt;http://dbpedia.org/ontology/Film&gt; || ?type dbpedia-owl:subclassOf &lt;http://dbpedia.org/ontology/Film&gt;) FILTER(STRSTARTS(str(?uri), "http://dbpedia.org/resource/")) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia-owl:Himalayas dbpedia-owl:country ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { dbpedia-ontology:Angela_Merkel dbpedia-ontology:almaMater ?res . ?res a ?type . FILTER (strstarts(str(?type), "http://dbpedia.org/ontology/EducationalInstitution") || strstarts(str(?type), "http://dbpedia.org/ontology/University") || strstarts(str(?type), "http://dbpedia.org/ontology/School")) }</t>
-  </si>
-  <si>
     <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Goofy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?uri }</t>
   </si>
   <si>
@@ -1256,147 +962,1227 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Missing rdf:type</t>
+  </si>
+  <si>
+    <t>Resource treated as Ontology</t>
+  </si>
+  <si>
+    <t>Structural Error</t>
+  </si>
+  <si>
+    <t>Query Bad Formed</t>
+  </si>
+  <si>
+    <t>Unadapted Dataset Patterns</t>
+  </si>
+  <si>
+    <t>Wrong Ontology</t>
+  </si>
+  <si>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
+  </si>
+  <si>
+    <t>Wrong Resource</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; &lt;http://dbpedia.org/ontology/founder&gt; ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbp:Musical ?title . ?uri dbp:MusicBy &lt;http://dbpedia.org/resource/Elton_John&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { dbpedia-owl:Skype dbpedia-owl:developer ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:SoccerClub dbpedia:German_Bundesliga . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?actor WHERE { ?movie dbpedia-owl:director dbpedia-resource:William_Shatner . ?movie dbpedia-owl:actor ?actor . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia-resource was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 110,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?actor WHERE { ?movie dbpedia-owl:director dbpedia-resource:William_Shatner . ?movie dbpedia-owl:actor ?actor . }",\n        "startIndex": 110,\n        "stopIndex": 141\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?actor WHERE { ?movie dbpedia-owl:director dbpedia-resource:William_Shatner . ?movie dbpedia-owl:actor ?actor . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia-resource was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 110,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?actor WHERE { ?movie dbpedia-owl:director dbpedia-resource:William_Shatner . ?movie dbpedia-owl:actor ?actor . }",\n        "startIndex": 487,\n        "stopIndex": 518\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?actor WHERE { ?movie dbpedia-owl:director dbpedia-resource:William_Shatner . ?movie dbpedia-owl:actor ?actor . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:classification dbo:Mountain ; dbp:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film dbo:Film ?filmURI . ?film dbo:starring &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; dbpedia:deathDate ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Burton&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:resource/Minecraft dbpedia:developer ?uri . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"/\\": mismatched input \'/\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 92,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:resource/Minecraft dbpedia:developer ?uri . }",\n        "startIndex": 92,\n        "stopIndex": 92\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:resource/Minecraft dbpedia:developer ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"/\\": mismatched input \'/\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 92,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:resource/Minecraft dbpedia:developer ?uri . }",\n        "startIndex": 469,\n        "stopIndex": 469\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:resource/Minecraft dbpedia:developer ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?val WHERE { &lt;http://dbpedia.org/resource/The_Lego_Movie&gt; &lt;http://dbpedia.org/ontology/budget&gt; ?val }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?label WHERE { db:Elvis_Presley dbpedia:artist ?artist_uri . ?artist_uri dbpedia:releaseDate ?release_date . ?album_uri dbpedia:releaseDate ?release_date . ?album_uri dbpedia:recordLabel ?record_label . ?record_label dbpedia:label ?label . FILTER (?release_date = (SELECT ?release_date FROM {db:Elvis_Presley dbpedia:releaseDate ?release_date} LIMIT 1)) }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"SELECT\\": extraneous input \'SELECT\' expecting {\'(\', \'+\', \'!\', \'-\', \'true\', \'false\', GROUP_CONCAT, NOT, STR, LANG, LANGMATCHES, DATATYPE, BOUND, IRI, URI, BNODE, RAND, ABS, CEIL, FLOOR, ROUND, CONCAT, STRLEN, UCASE, LCASE, ENCODE_FOR_URI, CONTAINS, STRSTARTS, STRENDS, STRBEFORE, STRAFTER, YEAR, MONTH, DAY, HOURS, MINUTES, SECONDS, TIMEZONE, TZ, NOW, UUID, STRUUID, SHA1, SHA256, SHA384, SHA512, MD5, COALESCE, IF, STRLANG, STRDT, SAMETERM, ISIRI, ISURI, ISBLANK, ISLITERAL, ISNUMERIC, REGEX, SUBSTR, REPLACE, EXISTS, COUNT, SUM, MIN, MAX, AVG, SAMPLE, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 415,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?label WHERE { db:Elvis_Presley dbpedia:artist ?artist_uri . ?artist_uri dbpedia:releaseDate ?release_date . ?album_uri dbpedia:releaseDate ?release_date . ?album_uri dbpedia:recordLabel ?record_label . ?record_label dbpedia:label ?label . FILTER (?release_date = (SELECT ?release_date FROM {db:Elvis_Presley dbpedia:releaseDate ?release_date} LIMIT 1)) }",\n        "startIndex": 415,\n        "stopIndex": 420\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?label WHERE { db:Elvis_Presley dbpedia:artist ?artist_uri . ?artist_uri dbpedia:releaseDate ?release_date . ?album_uri dbpedia:releaseDate ?release_date . ?album_uri dbpedia:recordLabel ?record_label . ?record_label dbpedia:label ?label . FILTER (?release_date = (SELECT ?release_date FROM {db:Elvis_Presley dbpedia:releaseDate ?release_date} LIMIT 1)) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"SELECT\\": extraneous input \'SELECT\' expecting {\'(\', \'+\', \'!\', \'-\', \'true\', \'false\', GROUP_CONCAT, NOT, STR, LANG, LANGMATCHES, DATATYPE, BOUND, IRI, URI, BNODE, RAND, ABS, CEIL, FLOOR, ROUND, CONCAT, STRLEN, UCASE, LCASE, ENCODE_FOR_URI, CONTAINS, STRSTARTS, STRENDS, STRBEFORE, STRAFTER, YEAR, MONTH, DAY, HOURS, MINUTES, SECONDS, TIMEZONE, TZ, NOW, UUID, STRUUID, SHA1, SHA256, SHA384, SHA512, MD5, COALESCE, IF, STRLANG, STRDT, SAMETERM, ISIRI, ISURI, ISBLANK, ISLITERAL, ISNUMERIC, REGEX, SUBSTR, REPLACE, EXISTS, COUNT, SUM, MIN, MAX, AVG, SAMPLE, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 415,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?label WHERE { db:Elvis_Presley dbpedia:artist ?artist_uri . ?artist_uri dbpedia:releaseDate ?release_date . ?album_uri dbpedia:releaseDate ?release_date . ?album_uri dbpedia:recordLabel ?record_label . ?record_label dbpedia:label ?label . FILTER (?release_date = (SELECT ?release_date FROM {db:Elvis_Presley dbpedia:releaseDate ?release_date} LIMIT 1)) }",\n        "startIndex": 792,\n        "stopIndex": 797\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?label WHERE { db:Elvis_Presley dbpedia:artist ?artist_uri . ?artist_uri dbpedia:releaseDate ?release_date . ?album_uri dbpedia:releaseDate ?release_date . ?album_uri dbpedia:recordLabel ?record_label . ?record_label dbpedia:label ?label . FILTER (?release_date = (SELECT ?release_date FROM {db:Elvis_Presley dbpedia:releaseDate ?release_date} LIMIT 1)) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { dbpedia-owl:Toy_Story dbpedia-owl:runtime ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:occupation dbpedia:Bandleader ; dbpedia:instrument dbpedia:Trumpet . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Film&gt; ?film . ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt; . ?uri &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?year WHERE { &lt;http://dbpedia.org/resource/Rachel_Stevens&gt; dbo:birthYear ?birthYear . BIND(YEAR(?birthYear) as ?year) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?s dbpedia-owl:deathCause ?uri . } GROUP BY ?uri ORDER BY DESC(COUNT(DISTINCT ?s)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?num WHERE { &lt;http://dbpedia.org/resource/Yokohama_Marine_Tower&gt; dbo:height ?num . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Mountain ; dbo:locatedInArea &lt;http://dbpedia.org/resource/Italy&gt; . OPTIONAL { ?uri dbo:elevation ?elevation . } } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Albert_Einstein&gt; &lt;http://dbpedia.org/ontology/doctoralAdvisor&gt; ?uri}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?business WHERE { ?business a dbpedia-owl:Company . ?business dbpedia-owl:owner dbpedia:Donald_Trump . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?o1 WHERE { &lt;http://dbpedia.org/resource/Tom_Cruise&gt; &lt;http://dbpedia.org/ontology/spouse&gt; ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { db: Eurasia dbo: populationTotal ?val }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"Eurasia\\": extraneous input \'Eurasia\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 109,\n        "query": "PREFIX db: &lt;http://dbpedia.org/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { db: Eurasia dbo: populationTotal ?val }",\n        "startIndex": 109,\n        "stopIndex": 115\n    },\n    "query": "PREFIX db: &lt;http://dbpedia.org/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { db: Eurasia dbo: populationTotal ?val }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"Eurasia\\": extraneous input \'Eurasia\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 109,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { db: Eurasia dbo: populationTotal ?val }",\n        "startIndex": 443,\n        "stopIndex": 449\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { db: Eurasia dbo: populationTotal ?val }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?author WHERE { dbpedia:The_Interpretation_of_Dreams dbpedia-ontology:author ?author . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia2:John_Adams dbpedia2:birthDate ?val . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia2 was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 76,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia2:John_Adams dbpedia2:birthDate ?val . }",\n        "startIndex": 76,\n        "stopIndex": 94\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia2:John_Adams dbpedia2:birthDate ?val . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia2 was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 76,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia2:John_Adams dbpedia2:birthDate ?val . }",\n        "startIndex": 453,\n        "stopIndex": 471\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia2:John_Adams dbpedia2:birthDate ?val . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbprop: &lt;http://dbpedia.org/property/&gt; SELECT ?population WHERE { dbpedia:European_Union dbprop:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/China&gt; &lt;http://dbpedia.org/ontology/currency&gt; ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbprop: &lt;http://dbpedia.org/property/&gt; SELECT STRFTIME("%Y-%m-%d", ?deathDate) AS ?deathDate WHERE { dbpedia:William_Shakespeare ?deathDate } AND FILTER regex(?deathDate, "^\\d{4}-\\d{2}-\\d{2}$")</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"STRFTIME\\": extraneous input \'STRFTIME\' expecting {\'*\', \'(\', DISTINCT, REDUCED, VAR1, VAR2}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 100,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbprop: &lt;http://dbpedia.org/property/&gt; SELECT STRFTIME(\\"%Y-%m-%d\\", ?deathDate) AS ?deathDate WHERE { dbpedia:William_Shakespeare ?deathDate } AND FILTER regex(?deathDate, \\"^\\\\\\\\d{4}-\\\\\\\\d{2}-\\\\\\\\d{2}$\\")",\n        "startIndex": 100,\n        "stopIndex": 107\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbprop: &lt;http://dbpedia.org/property/&gt; SELECT STRFTIME(\\"%Y-%m-%d\\", ?deathDate) AS ?deathDate WHERE { dbpedia:William_Shakespeare ?deathDate } AND FILTER regex(?deathDate, \\"^\\\\\\\\d{4}-\\\\\\\\d{2}-\\\\\\\\d{2}$\\")",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"STRFTIME\\": extraneous input \'STRFTIME\' expecting {\'*\', \'(\', DISTINCT, REDUCED, VAR1, VAR2}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 100,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbprop: &lt;http://dbpedia.org/property/&gt; SELECT STRFTIME(\\"%Y-%m-%d\\", ?deathDate) AS ?deathDate WHERE { dbpedia:William_Shakespeare ?deathDate } AND FILTER regex(?deathDate, \\"^\\\\\\\\d{4}-\\\\\\\\d{2}-\\\\\\\\d{2}$\\")",\n        "startIndex": 477,\n        "stopIndex": 484\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbprop: &lt;http://dbpedia.org/property/&gt; SELECT STRFTIME(\\"%Y-%m-%d\\", ?deathDate) AS ?deathDate WHERE { dbpedia:William_Shakespeare ?deathDate } AND FILTER regex(?deathDate, \\"^\\\\\\\\d{4}-\\\\\\\\d{2}-\\\\\\\\d{2}$\\")",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdfs:subClassOf* dbp:Rocket . ?uri dbp:launchSite db:Baikonur_Cosmodrome . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:country &lt;http://dbpedia.org/resource/Japan&gt;; dbpedia-owl:Island true . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/World_of_Warcraft&gt; dbpedia:developer ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Company&gt; . ?uri &lt;http://dbpedia.org/ontology/industry&gt; ?industry . ?industry &lt;http://dbpedia.org/ontology/wikiPageID&gt; "Q39809@" . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia:&lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { dbpedia:Angela_Merkel dbpedia-ontology:almaMater ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?type dbpedia-ontology:subclassOf* dbpedia-ontology:TelevisionShow . ?uri dbpedia-ontology:starring &lt;http://dbpedia.org/resource/Neil_Patrick_Harris&gt; . ?uri rdf:type ?type . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?s WHERE { ?s &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Tom_Cruise&gt; . ?s &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/Film&gt; . ?s a &lt;http://dbpedia.org/ontology/Film&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT ?country WHERE { db:Mount_Everest dbp:locatedInArea ?location . ?location dbp:Country ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:John_F._Kennedy dbpedia-ontology:deathPlace ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; &lt;http://dbpedia.org/ontology/crosses&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:Swimmer ?swimmer ; dbpedia-owl:birthPlace &lt;http://dbpedia.org/resource/Moscow&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?s1 WHERE { ?s1 &lt;http://dbpedia.org/ontology/Film&gt; &lt;http://dbpedia.org/resource/Alec_Guinness&gt; . ?s1 &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Alec_Guinness&gt; . ?s1 &lt;http://dbpedia.org/ontology/releaseDate&gt; ?o1 . } order by DESC(?o1) limit 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?max dbpedia-owl:mountain dbpedia-owl:Mountain . ?max dbpedia-owl:elevation ?maxElevation . FILTER NOT EXISTS { ?res dbpedia-owl:mountain dbpedia-owl:Mountain . ?res dbpedia-owl:elevation ?elevation . ?res dbpedia-owl:location dbpedia-owl:Country dbpedia-owl:UnitedKingdom . FILTER (?elevation &gt; ?maxElevation) } FILTER (?maxElevation &gt; ?elevation) } ORDER BY DESC(?elevation) LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 233,\n        "query": "PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?type dbpedia-ontology:subclassOf* dbpedia-ontology:TelevisionShow . ?uri dbpedia-ontology:starring &lt;http://dbpedia.org/resource/Neil_Patrick_Harris&gt; . ?uri rdf:type ?type . }",\n        "startIndex": 233,\n        "stopIndex": 240\n    },\n    "query": "PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?type dbpedia-ontology:subclassOf* dbpedia-ontology:TelevisionShow . ?uri dbpedia-ontology:starring &lt;http://dbpedia.org/resource/Neil_Patrick_Harris&gt; . ?uri rdf:type ?type . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"dbpedia-owl:UnitedKingdom\\": missing \'}\' at \'dbpedia-owl:UnitedKingdom\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 318,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?max dbpedia-owl:mountain dbpedia-owl:Mountain . ?max dbpedia-owl:elevation ?maxElevation . FILTER NOT EXISTS { ?res dbpedia-owl:mountain dbpedia-owl:Mountain . ?res dbpedia-owl:elevation ?elevation . ?res dbpedia-owl:location dbpedia-owl:Country dbpedia-owl:UnitedKingdom . FILTER (?elevation &gt; ?maxElevation) } FILTER (?maxElevation &gt; ?elevation) } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 695,\n        "stopIndex": 719\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?max dbpedia-owl:mountain dbpedia-owl:Mountain . ?max dbpedia-owl:elevation ?maxElevation . FILTER NOT EXISTS { ?res dbpedia-owl:mountain dbpedia-owl:Mountain . ?res dbpedia-owl:elevation ?elevation . ?res dbpedia-owl:location dbpedia-owl:Country dbpedia-owl:UnitedKingdom . FILTER (?elevation &gt; ?maxElevation) } FILTER (?maxElevation &gt; ?elevation) } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX db: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?val WHERE { dbpedia:cairo dbpedia-owl:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri a dbo:Person . ?uri dbo:birthPlace &lt;http://dbpedia.org/resource/Heraklion&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?uri) as ?c) WHERE { dbpedia-resource:Benjamin_Franklin dbpedia-owl:child ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/#&gt; SELECT ?elevation WHERE { &lt;http://dbpedia.org/resource/Düsseldorf_Airport&gt; dbpedia-owl:elevation ?elevation . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE { dbr:Mecca dbo:country ?country . ?country rdf:type dbo:Country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbpedia: Claudia_Schiffer dbpedia-owl:height ?val }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"dbpedia-owl:UnitedKingdom\\": missing \'}\' at \'dbpedia-owl:UnitedKingdom\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 318,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?max dbpedia-owl:mountain dbpedia-owl:Mountain . ?max dbpedia-owl:elevation ?maxElevation . FILTER NOT EXISTS { ?res dbpedia-owl:mountain dbpedia-owl:Mountain . ?res dbpedia-owl:elevation ?elevation . ?res dbpedia-owl:location dbpedia-owl:Country dbpedia-owl:UnitedKingdom . FILTER (?elevation &gt; ?maxElevation) } FILTER (?maxElevation &gt; ?elevation) } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 318,\n        "stopIndex": 342\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?max dbpedia-owl:mountain dbpedia-owl:Mountain . ?max dbpedia-owl:elevation ?maxElevation . FILTER NOT EXISTS { ?res dbpedia-owl:mountain dbpedia-owl:Mountain . ?res dbpedia-owl:elevation ?elevation . ?res dbpedia-owl:location dbpedia-owl:Country dbpedia-owl:UnitedKingdom . FILTER (?elevation &gt; ?maxElevation) } FILTER (?maxElevation &gt; ?elevation) } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"Claudia_Schiffer\\": extraneous input \'Claudia_Schiffer\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 136,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbpedia: Claudia_Schiffer dbpedia-owl:height ?val }",\n        "startIndex": 513,\n        "stopIndex": 528\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbpedia: Claudia_Schiffer dbpedia-owl:height ?val }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?author WHERE { &lt;http://dbpedia.org/resource/The_Pillars_of_the_Earth&gt; dbo:author ?author . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Lou_Reed&gt; &lt;http://dbpedia.org/ontology/genre&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?birthPlace WHERE { dbpedia:Frank_Sinatra dbpedia-owl:birthPlace ?birthPlace . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 161,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE { dbr:Mecca dbo:country ?country . ?country rdf:type dbo:Country . }",\n        "startIndex": 161,\n        "stopIndex": 168\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE { dbr:Mecca dbo:country ?country . ?country rdf:type dbo:Country . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 78,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?birthPlace WHERE { dbpedia:Frank_Sinatra dbpedia-owl:birthPlace ?birthPlace . }",\n        "startIndex": 455,\n        "stopIndex": 475\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?birthPlace WHERE { dbpedia:Frank_Sinatra dbpedia-owl:birthPlace ?birthPlace . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT ?city WHERE { ?city dbpedia:City [] . FILTER NOT EXISTS { ?other_city dbpedia:City [] . ?other_city dbpedia:populationTotal ?other_population . FILTER (?other_population &lt; ?population) } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"Claudia_Schiffer\\": extraneous input \'Claudia_Schiffer\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 136,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbpedia: Claudia_Schiffer dbpedia-owl:height ?val }",\n        "startIndex": 136,\n        "stopIndex": 151\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbpedia: Claudia_Schiffer dbpedia-owl:height ?val }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Built-in function \\"notexists{?other_citydbpedia:city[].?other_citydbpedia:populationtotal?other_population.filter(?other_population&lt;?population)}\\"  not yet implemented; if you need it, just add it to SparqlQleverVisitor.cpp::visitTypesafe(Parser::BuiltInCallContext following the already implemented functions there",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 99,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT ?city WHERE { ?city dbpedia:City [] . FILTER NOT EXISTS { ?other_city dbpedia:City [] . ?other_city dbpedia:populationTotal ?other_population . FILTER (?other_population &lt; ?population) } }",\n        "startIndex": 476,\n        "stopIndex": 616\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT ?city WHERE { ?city dbpedia:City [] . FILTER NOT EXISTS { ?other_city dbpedia:City [] . ?other_city dbpedia:populationTotal ?other_population . FILTER (?other_population &lt; ?population) } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:creator &lt;http://dbpedia.org/resource/Walt_Disney&gt; . ?uri a dbpedia-owl:TelevisionShow . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?holiday WHERE { ?holiday a dbpedia-owl:Holiday . ?holiday dbpedia-owl:country dbpedia-resource:Sweden . ?holiday dbpedia-owl:wikidata ?wikidata_id . FILTER (regex(str(?wikidata_id), "Q1445650")). FILTER (regex(str(?holiday), "Sweden")) ?wikidata_id wdt:P31 wd:Q1401522 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Apple_Inc. dbpedia:netIncome ?uri . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 78,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?birthPlace WHERE { dbpedia:Frank_Sinatra dbpedia-owl:birthPlace ?birthPlace . }",\n        "startIndex": 78,\n        "stopIndex": 98\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?birthPlace WHERE { dbpedia:Frank_Sinatra dbpedia-owl:birthPlace ?birthPlace . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 84,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Apple_Inc. dbpedia:netIncome ?uri . }",\n        "startIndex": 461,\n        "stopIndex": 461\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Apple_Inc. dbpedia:netIncome ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { dbpedia:Abraham_Lincoln dbpedia:deathPlace ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia-owl:Himalayas dbpedia-owl:country ?country . ?country dbpedia-owl:capital ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { &lt;http://dbpedia.org/resource/Limerick_Lake&gt; dbpedia-owl:country ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?val WHERE { &lt;http://dbpedia.org/resource/Michael_Jordan&gt; &lt;http://dbpedia.org/ontology/height&gt; ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?film db:director db:Clint_Eastwood ; db:starring ?uri . FILTER (?film = ?uri) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri dbpedia:currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Built-in function \\"notexists{?other_citydbpedia:city[].?other_citydbpedia:populationtotal?other_population.filter(?other_population&lt;?population)}\\"  not yet implemented; if you need it, just add it to SparqlQleverVisitor.cpp::visitTypesafe(Parser::BuiltInCallContext following the already implemented functions there",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 99,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT ?city WHERE { ?city dbpedia:City [] . FILTER NOT EXISTS { ?other_city dbpedia:City [] . ?other_city dbpedia:populationTotal ?other_population . FILTER (?other_population &lt; ?population) } }",\n        "startIndex": 99,\n        "stopIndex": 239\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT ?city WHERE { ?city dbpedia:City [] . FILTER NOT EXISTS { ?other_city dbpedia:City [] . ?other_city dbpedia:populationTotal ?other_population . FILTER (?other_population &lt; ?population) } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 34,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri dbpedia:currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; . }",\n        "startIndex": 411,\n        "stopIndex": 426\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri dbpedia:currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?val WHERE { dbpedia:Iraq dbpedia-owl:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?holiday WHERE { ?holiday a ?type . ?type owl:sameAs &lt;http://www.wikidata.org/entity/Q1445650&gt; . ?holiday dbpedia-owl:Holiday . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 84,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Apple_Inc. dbpedia:netIncome ?uri . }",\n        "startIndex": 84,\n        "stopIndex": 84\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Apple_Inc. dbpedia:netIncome ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 193,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?holiday WHERE { ?holiday a ?type . ?type owl:sameAs &lt;http://www.wikidata.org/entity/Q1445650&gt; . ?holiday dbpedia-owl:Holiday . }",\n        "startIndex": 570,\n        "stopIndex": 570\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?holiday WHERE { ?holiday a ?type . ?type owl:sameAs &lt;http://www.wikidata.org/entity/Q1445650&gt; . ?holiday dbpedia-owl:Holiday . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbp:PoliticalParty dbpedia:Greece ; dbp:ideology dbpedia:Pro-Europeanism . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?actor ?date WHERE { &lt;http://dbpedia.org/resource/Charmed&gt; &lt;http://dbpedia.org/ontology/starring&gt; ?actor . ?actor &lt;http://dbpedia.org/ontology/birthDate&gt; ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/The_Three_Dancers&gt; db:movement ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/agent&gt; &lt;http://dbpedia.org/ontology/Actor&gt; . { ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt; &lt;http://dbpedia.org/resource/Germany&gt; . } UNION { ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt;/&lt;http://dbpedia.org/ontology/country&gt; &lt;http://dbpedia.org/resource/Germany&gt; . } }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; dbo:architect ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?uri WHERE { &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; &lt;http://dbpedia.org/ontology/composer&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film WHERE { ?film dbpedia-owl:director &lt;http://dbpedia.org/resource/Francis_Ford_Coppola&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?name WHERE { ?s dbpedia-owl:birthName ?name . FILTER (?s = &lt;http://dbpedia.org/resource/Adele&gt;) . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/artist&gt; &lt;http://dbpedia.org/resource/Queen_(band)&gt; . ?uri &lt;http://dbpedia.org/ontology/Album&gt; ?album . ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?date . FILTER (ISIRI(?date)) FILTER (NOT EXISTS { ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?earlierDate . FILTER (?earlierDate &lt; ?date) }) } ORDER BY ?date LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri dbpedia:currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; . }",\n        "startIndex": 34,\n        "stopIndex": 49\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri dbpedia:currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Built-in function \\"notexists{?uri&lt;http://dbpedia.org/ontology/releasedate&gt;?earlierdate.filter(?earlierdate&lt;?date)}\\"  not yet implemented; if you need it, just add it to SparqlQleverVisitor.cpp::visitTypesafe(Parser::BuiltInCallContext following the already implemented functions there",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 251,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/artist&gt; &lt;http://dbpedia.org/resource/Queen_(band)&gt; . ?uri &lt;http://dbpedia.org/ontology/Album&gt; ?album . ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?date . FILTER (ISIRI(?date)) FILTER (NOT EXISTS { ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?earlierDate . FILTER (?earlierDate &lt; ?date) }) } ORDER BY ?date LIMIT 1",\n        "startIndex": 628,\n        "stopIndex": 733\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/artist&gt; &lt;http://dbpedia.org/resource/Queen_(band)&gt; . ?uri &lt;http://dbpedia.org/ontology/Album&gt; ?album . ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?date . FILTER (ISIRI(?date)) FILTER (NOT EXISTS { ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?earlierDate . FILTER (?earlierDate &lt; ?date) }) } ORDER BY ?date LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Czech_Republic&gt; &lt;http://dbpedia.org/ontology/currency&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { { ?uri db:birthPlace &lt;http://dbpedia.org/resource/Vienna&gt; . ?uri db:deathPlace &lt;http://dbpedia.org/resource/Berlin&gt; . } UNION { ?uri db:birthPlace ?birthPlace . ?birthPlace rdfs:label "Vienna"@en . ?uri db:deathPlace ?deathPlace . ?deathPlace rdfs:label "Berlin"@en . } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 193,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?holiday WHERE { ?holiday a ?type . ?type owl:sameAs &lt;http://www.wikidata.org/entity/Q1445650&gt; . ?holiday dbpedia-owl:Holiday . }",\n        "startIndex": 193,\n        "stopIndex": 193\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?holiday WHERE { ?holiday a ?type . ?type owl:sameAs &lt;http://www.wikidata.org/entity/Q1445650&gt; . ?holiday dbpedia-owl:Holiday . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 235,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { { ?uri db:birthPlace &lt;http://dbpedia.org/resource/Vienna&gt; . ?uri db:deathPlace &lt;http://dbpedia.org/resource/Berlin&gt; . } UNION { ?uri db:birthPlace ?birthPlace . ?birthPlace rdfs:label \\"Vienna\\"@en . ?uri db:deathPlace ?deathPlace . ?deathPlace rdfs:label \\"Berlin\\"@en . } }",\n        "startIndex": 612,\n        "stopIndex": 621\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { { ?uri db:birthPlace &lt;http://dbpedia.org/resource/Vienna&gt; . ?uri db:deathPlace &lt;http://dbpedia.org/resource/Berlin&gt; . } UNION { ?uri db:birthPlace ?birthPlace . ?birthPlace rdfs:label \\"Vienna\\"@en . ?uri db:deathPlace ?deathPlace . ?deathPlace rdfs:label \\"Berlin\\"@en . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri db:Bridges db:crosses &lt;http://dbpedia.org/resource/Seine&gt; . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Built-in function \\"notexists{?uri&lt;http://dbpedia.org/ontology/releasedate&gt;?earlierdate.filter(?earlierdate&lt;?date)}\\"  not yet implemented; if you need it, just add it to SparqlQleverVisitor.cpp::visitTypesafe(Parser::BuiltInCallContext following the already implemented functions there",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 251,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/artist&gt; &lt;http://dbpedia.org/resource/Queen_(band)&gt; . ?uri &lt;http://dbpedia.org/ontology/Album&gt; ?album . ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?date . FILTER (ISIRI(?date)) FILTER (NOT EXISTS { ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?earlierDate . FILTER (?earlierDate &lt; ?date) }) } ORDER BY ?date LIMIT 1",\n        "startIndex": 251,\n        "stopIndex": 356\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/artist&gt; &lt;http://dbpedia.org/resource/Queen_(band)&gt; . ?uri &lt;http://dbpedia.org/ontology/Album&gt; ?album . ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?date . FILTER (ISIRI(?date)) FILTER (NOT EXISTS { ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?earlierDate . FILTER (?earlierDate &lt; ?date) }) } ORDER BY ?date LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;http://dbpedia.org/resource/Seine&gt;\\": mismatched input \'&lt;http://dbpedia.org/resource/Seine&gt;\' expecting \'}\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 98,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri db:Bridges db:crosses &lt;http://dbpedia.org/resource/Seine&gt; . }",\n        "startIndex": 475,\n        "stopIndex": 509\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri db:Bridges db:crosses &lt;http://dbpedia.org/resource/Seine&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri (COUNT(?y) AS ?count) WHERE { ?uri db:occupation &lt;http://dbpedia.org/resource/Musician&gt; . ?x db:author ?uri . ?x db:Book ?y . } GROUP BY ?uri ORDER BY DESC(?count) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . ?uri &lt;http://dbpedia.org/ontology/creator&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbp:Writer ?award . ?award dbpedia:label ?label . FILTER (regex(?label, "Nobel Prize in Literature")) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; &lt;http://dbpedia.org/ontology/discoverer&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { ?res db:occupation dbp:Bandleader . ?res db:instrument dbp:Trumpet . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; . ?uri &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER(?height &gt; "200") }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri db:Film ?film_stmt . ?film_stmt db:starring ?starring_stmt1 . ?starring_stmt1 db:actor &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?film_stmt db:starring ?starring_stmt2 . ?starring_stmt2 db:actor &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?o1 WHERE { &lt;http://dbpedia.org/resource/Canada&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:SoccerPlayer ; dbo:birthPlace ?birthPlace . ?birthPlace rdfs:seeAlso &lt;http://dbpedia.org/resource/Malta&gt; . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 235,\n        "query": "PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { { ?uri db:birthPlace &lt;http://dbpedia.org/resource/Vienna&gt; . ?uri db:deathPlace &lt;http://dbpedia.org/resource/Berlin&gt; . } UNION { ?uri db:birthPlace ?birthPlace . ?birthPlace rdfs:label \\"Vienna\\"@en . ?uri db:deathPlace ?deathPlace . ?deathPlace rdfs:label \\"Berlin\\"@en . } }",\n        "startIndex": 235,\n        "stopIndex": 244\n    },\n    "query": "PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { { ?uri db:birthPlace &lt;http://dbpedia.org/resource/Vienna&gt; . ?uri db:deathPlace &lt;http://dbpedia.org/resource/Berlin&gt; . } UNION { ?uri db:birthPlace ?birthPlace . ?birthPlace rdfs:label \\"Vienna\\"@en . ?uri db:deathPlace ?deathPlace . ?deathPlace rdfs:label \\"Berlin\\"@en . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\";\\": extraneous input \';\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 85,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:SoccerPlayer ; dbo:birthPlace ?birthPlace . ?birthPlace rdfs:seeAlso &lt;http://dbpedia.org/resource/Malta&gt; . }",\n        "startIndex": 419,\n        "stopIndex": 419\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:SoccerPlayer ; dbo:birthPlace ?birthPlace . ?birthPlace rdfs:seeAlso &lt;http://dbpedia.org/resource/Malta&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Cameroon&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub dbpedia-owl:ProgrammingLanguage ?sub-property . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;http://dbpedia.org/resource/Seine&gt;\\": mismatched input \'&lt;http://dbpedia.org/resource/Seine&gt;\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 98,\n        "query": "PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri db:Bridges db:crosses &lt;http://dbpedia.org/resource/Seine&gt; . }",\n        "startIndex": 98,\n        "stopIndex": 132\n    },\n    "query": "PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri db:Bridges db:crosses &lt;http://dbpedia.org/resource/Seine&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"-\\": mismatched input \'-\' expecting \'}\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 140,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub dbpedia-owl:ProgrammingLanguage ?sub-property . }",\n        "startIndex": 517,\n        "stopIndex": 517\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub dbpedia-owl:ProgrammingLanguage ?sub-property . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Astronaut&gt; &lt;http://dbpedia.org/resource/Cosmonaut&gt; . { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Family_Guy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?population WHERE { dbpedia:Mexico_City dbpedia-owl:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?creator WHERE { dbpedia-ontology:Batman dbpedia-ontology:creator ?creator . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?number WHERE { &lt;http://dbpedia.org/resource/Australia&gt; dbpedia-owl:capital ?capital . ?capital dbpedia-owl:populationTotal ?number . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/North_Rhine-Westphalia&gt; dbpedia-owl:areaTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?numberOfEmployees WHERE { dbp:IBM dbo:numberOfEmployees ?numberOfEmployees . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?value WHERE { dbpedia:Resource/Pulp_Fiction dbpedia-ontology:budget ?value . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\";\\": extraneous input \';\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 85,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:SoccerPlayer ; dbo:birthPlace ?birthPlace . ?birthPlace rdfs:seeAlso &lt;http://dbpedia.org/resource/Malta&gt; . }",\n        "startIndex": 85,\n        "stopIndex": 85\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:SoccerPlayer ; dbo:birthPlace ?birthPlace . ?birthPlace rdfs:seeAlso &lt;http://dbpedia.org/resource/Malta&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"/\\": mismatched input \'/\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 132,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?value WHERE { dbpedia:Resource/Pulp_Fiction dbpedia-ontology:budget ?value . }",\n        "startIndex": 509,\n        "stopIndex": 509\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?value WHERE { dbpedia:Resource/Pulp_Fiction dbpedia-ontology:budget ?value . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?film WHERE { ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Jesse_Eisenberg&gt; . ?film rdf:type &lt;http://dbpedia.org/ontology/Film&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?type dbpedia-owl:subclassOf &lt;http://dbpedia.org/ontology/Film&gt; . ?uri dbpedia-owl:country &lt;http://dbpedia.org/resource/Denmark&gt; . FILTER(?type = &lt;http://dbpedia.org/ontology/Film&gt; || ?type dbpedia-owl:subclassOf &lt;http://dbpedia.org/ontology/Film&gt;) FILTER(STRSTARTS(str(?uri), "http://dbpedia.org/resource/")) }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"-\\": mismatched input \'-\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 140,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub dbpedia-owl:ProgrammingLanguage ?sub-property . }",\n        "startIndex": 140,\n        "stopIndex": 140\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub dbpedia-owl:ProgrammingLanguage ?sub-property . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"dbpedia-owl:subclassOf\\": missing \')\' at \'dbpedia-owl:subclassOf\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 219,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?type dbpedia-owl:subclassOf &lt;http://dbpedia.org/ontology/Film&gt; . ?uri dbpedia-owl:country &lt;http://dbpedia.org/resource/Denmark&gt; . FILTER(?type = &lt;http://dbpedia.org/ontology/Film&gt; || ?type dbpedia-owl:subclassOf &lt;http://dbpedia.org/ontology/Film&gt;) FILTER(STRSTARTS(str(?uri), \\"http://dbpedia.org/resource/\\")) }",\n        "startIndex": 596,\n        "stopIndex": 617\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?type dbpedia-owl:subclassOf &lt;http://dbpedia.org/ontology/Film&gt; . ?uri dbpedia-owl:country &lt;http://dbpedia.org/resource/Denmark&gt; . FILTER(?type = &lt;http://dbpedia.org/ontology/Film&gt; || ?type dbpedia-owl:subclassOf &lt;http://dbpedia.org/ontology/Film&gt;) FILTER(STRSTARTS(str(?uri), \\"http://dbpedia.org/resource/\\")) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia-owl:Himalayas dbpedia-owl:country ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"/\\": mismatched input \'/\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 132,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?value WHERE { dbpedia:Resource/Pulp_Fiction dbpedia-ontology:budget ?value . }",\n        "startIndex": 132,\n        "stopIndex": 132\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?value WHERE { dbpedia:Resource/Pulp_Fiction dbpedia-ontology:budget ?value . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "SELECT ?film WHERE { ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Jesse_Eisenberg&gt; . ?film rdf:type &lt;http://dbpedia.org/ontology/Film&gt; . }",\n        "startIndex": 120,\n        "stopIndex": 127\n    },\n    "query": "SELECT ?film WHERE { ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Jesse_Eisenberg&gt; . ?film rdf:type &lt;http://dbpedia.org/ontology/Film&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"dbpedia-owl:subclassOf\\": missing \')\' at \'dbpedia-owl:subclassOf\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 219,\n        "query": "SELECT DISTINCT ?uri WHERE { ?type dbpedia-owl:subclassOf &lt;http://dbpedia.org/ontology/Film&gt; . ?uri dbpedia-owl:country &lt;http://dbpedia.org/resource/Denmark&gt; . FILTER(?type = &lt;http://dbpedia.org/ontology/Film&gt; || ?type dbpedia-owl:subclassOf &lt;http://dbpedia.org/ontology/Film&gt;) FILTER(STRSTARTS(str(?uri), \\"http://dbpedia.org/resource/\\")) }",\n        "startIndex": 219,\n        "stopIndex": 240\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?type dbpedia-owl:subclassOf &lt;http://dbpedia.org/ontology/Film&gt; . ?uri dbpedia-owl:country &lt;http://dbpedia.org/resource/Denmark&gt; . FILTER(?type = &lt;http://dbpedia.org/ontology/Film&gt; || ?type dbpedia-owl:subclassOf &lt;http://dbpedia.org/ontology/Film&gt;) FILTER(STRSTARTS(str(?uri), \\"http://dbpedia.org/resource/\\")) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 72,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1",\n        "startIndex": 72,\n        "stopIndex": 72\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>Missing rdf:type</t>
-  </si>
-  <si>
-    <t>Resource treated as Ontology</t>
-  </si>
-  <si>
-    <t>Structural Error</t>
-  </si>
-  <si>
-    <t>Query Bad Formed</t>
-  </si>
-  <si>
-    <t>Unadapted Dataset Patterns</t>
-  </si>
-  <si>
-    <t>Ontology treated as Resource</t>
-  </si>
-  <si>
-    <t>Wrong Ontology</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 72,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1",\n        "startIndex": 449,\n        "stopIndex": 449\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { dbpedia-ontology:Angela_Merkel dbpedia-ontology:almaMater ?res . ?res a ?type . FILTER (strstarts(str(?type), "http://dbpedia.org/ontology/EducationalInstitution") || strstarts(str(?type), "http://dbpedia.org/ontology/University") || strstarts(str(?type), "http://dbpedia.org/ontology/School")) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Goofy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?uri }</t>
   </si>
 </sst>
 </file>
@@ -1764,13 +2550,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1795,25 +2581,34 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>323</v>
       </c>
       <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
-        <v>306</v>
-      </c>
       <c r="E2" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="F2" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1822,24 +2617,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>324</v>
       </c>
       <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
         <v>209</v>
       </c>
-      <c r="D3" t="s">
-        <v>307</v>
-      </c>
       <c r="E3" t="s">
-        <v>307</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1848,180 +2643,198 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>325</v>
       </c>
       <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
         <v>210</v>
       </c>
-      <c r="D4" t="s">
-        <v>308</v>
-      </c>
       <c r="E4" t="s">
-        <v>349</v>
+        <v>251</v>
       </c>
       <c r="F4" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="I4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>326</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="F5" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>327</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>351</v>
+        <v>253</v>
       </c>
       <c r="F6" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I6" t="s">
+        <v>322</v>
+      </c>
+      <c r="J6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>328</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E7" t="s">
-        <v>352</v>
+        <v>254</v>
       </c>
       <c r="F7" t="s">
-        <v>411</v>
+        <v>329</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I7" t="s">
+        <v>318</v>
+      </c>
+      <c r="J7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>330</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E8" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="F8" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>331</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
-        <v>354</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>332</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>310</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
-        <v>310</v>
+        <v>212</v>
       </c>
       <c r="F10" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -2030,24 +2843,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>333</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c r="E11" t="s">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c r="F11" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -2056,50 +2869,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>334</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>355</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
-        <v>412</v>
+        <v>335</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>336</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
       <c r="E13" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
       <c r="F13" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2108,128 +2924,134 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>337</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E14" t="s">
-        <v>356</v>
+        <v>258</v>
       </c>
       <c r="F14" t="s">
-        <v>413</v>
+        <v>338</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E15" t="s">
-        <v>357</v>
+        <v>259</v>
       </c>
       <c r="F15" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>340</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E16" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="F16" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>341</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E17" t="s">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="F17" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>342</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>313</v>
+        <v>215</v>
       </c>
       <c r="E18" t="s">
-        <v>313</v>
+        <v>215</v>
       </c>
       <c r="F18" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2238,50 +3060,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>343</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>314</v>
+        <v>216</v>
       </c>
       <c r="E19" t="s">
-        <v>359</v>
+        <v>261</v>
       </c>
       <c r="F19" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>344</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="F20" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2290,24 +3112,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>345</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="F21" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2316,24 +3138,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>346</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="E22" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="F22" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2342,102 +3164,105 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>347</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" t="s">
+        <v>312</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
         <v>318</v>
       </c>
-      <c r="E23" t="s">
-        <v>360</v>
-      </c>
-      <c r="F23" t="s">
-        <v>410</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>348</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E24" t="s">
-        <v>361</v>
+        <v>263</v>
       </c>
       <c r="F24" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>349</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E25" t="s">
-        <v>362</v>
+        <v>264</v>
       </c>
       <c r="F25" t="s">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>351</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="E26" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="F26" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2446,76 +3271,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>352</v>
       </c>
       <c r="C27" t="s">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E27" t="s">
-        <v>363</v>
+        <v>265</v>
       </c>
       <c r="F27" t="s">
-        <v>415</v>
+        <v>353</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I27" t="s">
+        <v>314</v>
+      </c>
+      <c r="J27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>354</v>
       </c>
       <c r="C28" t="s">
-        <v>234</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E28" t="s">
-        <v>364</v>
+        <v>266</v>
       </c>
       <c r="F28" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>355</v>
       </c>
       <c r="C29" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="E29" t="s">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="F29" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -2524,102 +3355,105 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>356</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E30" t="s">
-        <v>365</v>
+        <v>267</v>
       </c>
       <c r="F30" t="s">
-        <v>416</v>
+        <v>357</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I30" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>358</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E31" t="s">
-        <v>366</v>
+        <v>268</v>
       </c>
       <c r="F31" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>359</v>
       </c>
       <c r="C32" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E32" t="s">
-        <v>367</v>
+        <v>269</v>
       </c>
       <c r="F32" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>360</v>
       </c>
       <c r="C33" t="s">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>321</v>
+        <v>223</v>
       </c>
       <c r="E33" t="s">
-        <v>321</v>
+        <v>223</v>
       </c>
       <c r="F33" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -2628,50 +3462,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>361</v>
       </c>
       <c r="C34" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E34" t="s">
-        <v>368</v>
+        <v>270</v>
       </c>
       <c r="F34" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>362</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>322</v>
+        <v>224</v>
       </c>
       <c r="E35" t="s">
-        <v>322</v>
+        <v>224</v>
       </c>
       <c r="F35" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -2680,102 +3517,108 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>363</v>
       </c>
       <c r="C36" t="s">
-        <v>242</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="E36" t="s">
-        <v>369</v>
+        <v>271</v>
       </c>
       <c r="F36" t="s">
-        <v>417</v>
+        <v>312</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>364</v>
       </c>
       <c r="C37" t="s">
-        <v>243</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E37" t="s">
-        <v>370</v>
+        <v>272</v>
       </c>
       <c r="F37" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>365</v>
       </c>
       <c r="C38" t="s">
-        <v>244</v>
+        <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E38" t="s">
-        <v>371</v>
+        <v>273</v>
       </c>
       <c r="F38" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="I38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>366</v>
       </c>
       <c r="C39" t="s">
-        <v>245</v>
+        <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>323</v>
+        <v>225</v>
       </c>
       <c r="E39" t="s">
-        <v>323</v>
+        <v>225</v>
       </c>
       <c r="F39" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -2784,24 +3627,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>367</v>
       </c>
       <c r="C40" t="s">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>324</v>
+        <v>226</v>
       </c>
       <c r="E40" t="s">
-        <v>324</v>
+        <v>226</v>
       </c>
       <c r="F40" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -2810,128 +3653,134 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>368</v>
       </c>
       <c r="C41" t="s">
-        <v>247</v>
+        <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E41" t="s">
-        <v>372</v>
+        <v>274</v>
       </c>
       <c r="F41" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>369</v>
       </c>
       <c r="C42" t="s">
-        <v>248</v>
+        <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E42" t="s">
-        <v>373</v>
+        <v>275</v>
       </c>
       <c r="F42" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="I42" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>370</v>
       </c>
       <c r="C43" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E43" t="s">
-        <v>374</v>
+        <v>276</v>
       </c>
       <c r="F43" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I43" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>372</v>
       </c>
       <c r="C44" t="s">
-        <v>250</v>
+        <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E44" t="s">
-        <v>375</v>
+        <v>277</v>
       </c>
       <c r="F44" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>373</v>
       </c>
       <c r="C45" t="s">
-        <v>251</v>
+        <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>325</v>
+        <v>227</v>
       </c>
       <c r="E45" t="s">
-        <v>325</v>
+        <v>227</v>
       </c>
       <c r="F45" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -2940,24 +3789,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>374</v>
       </c>
       <c r="C46" t="s">
-        <v>252</v>
+        <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>326</v>
+        <v>228</v>
       </c>
       <c r="E46" t="s">
-        <v>326</v>
+        <v>228</v>
       </c>
       <c r="F46" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -2966,102 +3815,105 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="C47" t="s">
-        <v>253</v>
+        <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E47" t="s">
-        <v>376</v>
+        <v>278</v>
       </c>
       <c r="F47" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>376</v>
       </c>
       <c r="C48" t="s">
-        <v>254</v>
+        <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="E48" t="s">
-        <v>377</v>
+        <v>279</v>
       </c>
       <c r="F48" t="s">
-        <v>419</v>
+        <v>312</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>377</v>
       </c>
       <c r="C49" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E49" t="s">
+        <v>280</v>
+      </c>
+      <c r="F49" t="s">
         <v>378</v>
       </c>
-      <c r="F49" t="s">
-        <v>420</v>
-      </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I49" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>379</v>
       </c>
       <c r="C50" t="s">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>327</v>
+        <v>229</v>
       </c>
       <c r="E50" t="s">
-        <v>327</v>
+        <v>229</v>
       </c>
       <c r="F50" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -3070,24 +3922,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>380</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="E51" t="s">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="F51" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -3096,76 +3948,85 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
+        <v>381</v>
       </c>
       <c r="C52" t="s">
-        <v>257</v>
+        <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E52" t="s">
-        <v>379</v>
+        <v>281</v>
       </c>
       <c r="F52" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I52" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>383</v>
       </c>
       <c r="C53" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="D53" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E53" t="s">
-        <v>380</v>
+        <v>282</v>
       </c>
       <c r="F53" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I53" t="s">
+        <v>313</v>
+      </c>
+      <c r="J53" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>385</v>
       </c>
       <c r="C54" t="s">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="D54" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="E54" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="F54" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -3174,128 +4035,134 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>386</v>
       </c>
       <c r="C55" t="s">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="D55" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E55" t="s">
-        <v>381</v>
+        <v>283</v>
       </c>
       <c r="F55" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>387</v>
       </c>
       <c r="C56" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
       <c r="D56" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E56" t="s">
-        <v>382</v>
+        <v>284</v>
       </c>
       <c r="F56" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I56" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="C57" t="s">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="D57" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E57" t="s">
-        <v>383</v>
+        <v>285</v>
       </c>
       <c r="F57" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I57" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>390</v>
       </c>
       <c r="C58" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="D58" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E58" t="s">
-        <v>384</v>
+        <v>286</v>
       </c>
       <c r="F58" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>391</v>
       </c>
       <c r="C59" t="s">
-        <v>264</v>
+        <v>166</v>
       </c>
       <c r="D59" t="s">
-        <v>330</v>
+        <v>232</v>
       </c>
       <c r="E59" t="s">
-        <v>330</v>
+        <v>232</v>
       </c>
       <c r="F59" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -3304,24 +4171,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="C60" t="s">
-        <v>265</v>
+        <v>167</v>
       </c>
       <c r="D60" t="s">
-        <v>331</v>
+        <v>233</v>
       </c>
       <c r="E60" t="s">
-        <v>331</v>
+        <v>233</v>
       </c>
       <c r="F60" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -3330,76 +4197,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
+        <v>393</v>
       </c>
       <c r="C61" t="s">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E61" t="s">
-        <v>385</v>
+        <v>287</v>
       </c>
       <c r="F61" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I61" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>168</v>
+        <v>394</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>169</v>
       </c>
       <c r="D62" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E62" t="s">
-        <v>386</v>
+        <v>288</v>
       </c>
       <c r="F62" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I62" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
+        <v>396</v>
       </c>
       <c r="C63" t="s">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="D63" t="s">
-        <v>332</v>
+        <v>234</v>
       </c>
       <c r="E63" t="s">
-        <v>332</v>
+        <v>234</v>
       </c>
       <c r="F63" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3408,154 +4281,157 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
+        <v>397</v>
       </c>
       <c r="C64" t="s">
-        <v>269</v>
+        <v>171</v>
       </c>
       <c r="D64" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E64" t="s">
-        <v>387</v>
+        <v>289</v>
       </c>
       <c r="F64" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>171</v>
+        <v>399</v>
       </c>
       <c r="C65" t="s">
-        <v>270</v>
+        <v>172</v>
       </c>
       <c r="D65" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E65" t="s">
-        <v>388</v>
+        <v>290</v>
       </c>
       <c r="F65" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I65" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>400</v>
       </c>
       <c r="C66" t="s">
-        <v>271</v>
+        <v>173</v>
       </c>
       <c r="D66" t="s">
-        <v>333</v>
+        <v>235</v>
       </c>
       <c r="E66" t="s">
-        <v>389</v>
+        <v>291</v>
       </c>
       <c r="F66" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>173</v>
+        <v>401</v>
       </c>
       <c r="C67" t="s">
-        <v>272</v>
+        <v>174</v>
       </c>
       <c r="D67" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E67" t="s">
-        <v>390</v>
+        <v>292</v>
       </c>
       <c r="F67" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>402</v>
       </c>
       <c r="C68" t="s">
-        <v>273</v>
+        <v>175</v>
       </c>
       <c r="D68" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E68" t="s">
-        <v>391</v>
+        <v>293</v>
       </c>
       <c r="F68" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>403</v>
       </c>
       <c r="C69" t="s">
-        <v>274</v>
+        <v>176</v>
       </c>
       <c r="D69" t="s">
-        <v>334</v>
+        <v>236</v>
       </c>
       <c r="E69" t="s">
-        <v>334</v>
+        <v>236</v>
       </c>
       <c r="F69" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -3564,24 +4440,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
+        <v>404</v>
       </c>
       <c r="C70" t="s">
-        <v>275</v>
+        <v>177</v>
       </c>
       <c r="D70" t="s">
-        <v>335</v>
+        <v>237</v>
       </c>
       <c r="E70" t="s">
-        <v>335</v>
+        <v>237</v>
       </c>
       <c r="F70" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -3590,50 +4466,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>405</v>
       </c>
       <c r="C71" t="s">
-        <v>276</v>
+        <v>178</v>
       </c>
       <c r="D71" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="E71" t="s">
-        <v>392</v>
+        <v>294</v>
       </c>
       <c r="F71" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="I71" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>406</v>
       </c>
       <c r="C72" t="s">
-        <v>277</v>
+        <v>179</v>
       </c>
       <c r="D72" t="s">
-        <v>337</v>
+        <v>239</v>
       </c>
       <c r="E72" t="s">
-        <v>337</v>
+        <v>239</v>
       </c>
       <c r="F72" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -3642,50 +4521,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>407</v>
       </c>
       <c r="C73" t="s">
-        <v>278</v>
+        <v>180</v>
       </c>
       <c r="D73" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E73" t="s">
-        <v>393</v>
+        <v>295</v>
       </c>
       <c r="F73" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I73" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>180</v>
+        <v>409</v>
       </c>
       <c r="C74" t="s">
-        <v>279</v>
+        <v>181</v>
       </c>
       <c r="D74" t="s">
-        <v>338</v>
+        <v>240</v>
       </c>
       <c r="E74" t="s">
-        <v>338</v>
+        <v>240</v>
       </c>
       <c r="F74" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -3694,154 +4576,163 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>181</v>
+        <v>410</v>
       </c>
       <c r="C75" t="s">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="D75" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E75" t="s">
-        <v>394</v>
+        <v>296</v>
       </c>
       <c r="F75" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I75" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>182</v>
+        <v>412</v>
       </c>
       <c r="C76" t="s">
-        <v>281</v>
+        <v>183</v>
       </c>
       <c r="D76" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E76" t="s">
-        <v>395</v>
+        <v>297</v>
       </c>
       <c r="F76" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I76" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>183</v>
+        <v>414</v>
       </c>
       <c r="C77" t="s">
-        <v>282</v>
+        <v>184</v>
       </c>
       <c r="D77" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E77" t="s">
-        <v>396</v>
+        <v>298</v>
       </c>
       <c r="F77" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>415</v>
       </c>
       <c r="C78" t="s">
-        <v>283</v>
+        <v>185</v>
       </c>
       <c r="D78" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E78" t="s">
-        <v>397</v>
+        <v>299</v>
       </c>
       <c r="F78" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>185</v>
+        <v>416</v>
       </c>
       <c r="C79" t="s">
-        <v>284</v>
+        <v>186</v>
       </c>
       <c r="D79" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E79" t="s">
-        <v>398</v>
+        <v>300</v>
       </c>
       <c r="F79" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I79" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>186</v>
+        <v>417</v>
       </c>
       <c r="C80" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
       <c r="D80" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="E80" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="F80" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -3850,24 +4741,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>187</v>
+        <v>418</v>
       </c>
       <c r="C81" t="s">
-        <v>286</v>
+        <v>188</v>
       </c>
       <c r="D81" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="E81" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="F81" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
@@ -3876,76 +4767,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>188</v>
+        <v>419</v>
       </c>
       <c r="C82" t="s">
-        <v>287</v>
+        <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E82" t="s">
-        <v>399</v>
+        <v>301</v>
       </c>
       <c r="F82" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>189</v>
+        <v>420</v>
       </c>
       <c r="C83" t="s">
-        <v>288</v>
+        <v>190</v>
       </c>
       <c r="D83" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E83" t="s">
-        <v>400</v>
+        <v>302</v>
       </c>
       <c r="F83" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="I83" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>421</v>
       </c>
       <c r="C84" t="s">
-        <v>289</v>
+        <v>191</v>
       </c>
       <c r="D84" t="s">
-        <v>341</v>
+        <v>243</v>
       </c>
       <c r="E84" t="s">
-        <v>341</v>
+        <v>243</v>
       </c>
       <c r="F84" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -3954,50 +4848,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>422</v>
       </c>
       <c r="C85" t="s">
-        <v>290</v>
+        <v>192</v>
       </c>
       <c r="D85" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E85" t="s">
-        <v>401</v>
+        <v>303</v>
       </c>
       <c r="F85" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I85" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>192</v>
+        <v>424</v>
       </c>
       <c r="C86" t="s">
-        <v>291</v>
+        <v>193</v>
       </c>
       <c r="D86" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="E86" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="F86" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -4006,76 +4903,85 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>193</v>
+        <v>425</v>
       </c>
       <c r="C87" t="s">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="D87" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E87" t="s">
-        <v>402</v>
+        <v>304</v>
       </c>
       <c r="F87" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I87" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>194</v>
+        <v>427</v>
       </c>
       <c r="C88" t="s">
-        <v>293</v>
+        <v>195</v>
       </c>
       <c r="D88" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E88" t="s">
-        <v>403</v>
+        <v>305</v>
       </c>
       <c r="F88" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I88" t="s">
+        <v>322</v>
+      </c>
+      <c r="J88" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>195</v>
+        <v>428</v>
       </c>
       <c r="C89" t="s">
-        <v>294</v>
+        <v>196</v>
       </c>
       <c r="D89" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="E89" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="F89" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -4084,24 +4990,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>196</v>
+        <v>429</v>
       </c>
       <c r="C90" t="s">
-        <v>295</v>
+        <v>197</v>
       </c>
       <c r="D90" t="s">
-        <v>344</v>
+        <v>246</v>
       </c>
       <c r="E90" t="s">
-        <v>344</v>
+        <v>246</v>
       </c>
       <c r="F90" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -4110,50 +5016,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>197</v>
+        <v>430</v>
       </c>
       <c r="C91" t="s">
-        <v>296</v>
+        <v>198</v>
       </c>
       <c r="D91" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E91" t="s">
-        <v>404</v>
+        <v>306</v>
       </c>
       <c r="F91" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I91" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>198</v>
+        <v>431</v>
       </c>
       <c r="C92" t="s">
-        <v>297</v>
+        <v>199</v>
       </c>
       <c r="D92" t="s">
-        <v>345</v>
+        <v>247</v>
       </c>
       <c r="E92" t="s">
-        <v>345</v>
+        <v>247</v>
       </c>
       <c r="F92" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
@@ -4162,24 +5071,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>199</v>
+        <v>432</v>
       </c>
       <c r="C93" t="s">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c r="D93" t="s">
-        <v>346</v>
+        <v>248</v>
       </c>
       <c r="E93" t="s">
-        <v>346</v>
+        <v>248</v>
       </c>
       <c r="F93" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -4188,24 +5097,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>200</v>
+        <v>433</v>
       </c>
       <c r="C94" t="s">
-        <v>299</v>
+        <v>201</v>
       </c>
       <c r="D94" t="s">
-        <v>347</v>
+        <v>249</v>
       </c>
       <c r="E94" t="s">
-        <v>347</v>
+        <v>249</v>
       </c>
       <c r="F94" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
@@ -4214,180 +5123,201 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>201</v>
+        <v>434</v>
       </c>
       <c r="C95" t="s">
-        <v>300</v>
+        <v>202</v>
       </c>
       <c r="D95" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E95" t="s">
-        <v>405</v>
+        <v>307</v>
       </c>
       <c r="F95" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I95" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>202</v>
+        <v>436</v>
       </c>
       <c r="C96" t="s">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="D96" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E96" t="s">
-        <v>406</v>
+        <v>308</v>
       </c>
       <c r="F96" t="s">
-        <v>432</v>
+        <v>312</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>203</v>
+        <v>437</v>
       </c>
       <c r="C97" t="s">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="D97" t="s">
+        <v>211</v>
+      </c>
+      <c r="E97" t="s">
         <v>309</v>
       </c>
-      <c r="E97" t="s">
-        <v>407</v>
-      </c>
       <c r="F97" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I97" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>439</v>
       </c>
       <c r="C98" t="s">
-        <v>303</v>
+        <v>205</v>
       </c>
       <c r="D98" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E98" t="s">
-        <v>408</v>
+        <v>310</v>
       </c>
       <c r="F98" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I98" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>205</v>
+        <v>440</v>
       </c>
       <c r="C99" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="D99" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="E99" t="s">
-        <v>409</v>
+        <v>311</v>
       </c>
       <c r="F99" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I99" t="s">
+        <v>313</v>
+      </c>
+      <c r="J99" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>206</v>
+        <v>442</v>
       </c>
       <c r="C100" t="s">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="D100" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="E100" t="s">
-        <v>322</v>
+        <v>224</v>
       </c>
       <c r="F100" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I100" t="s">
+        <v>318</v>
+      </c>
+      <c r="J100" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>207</v>
+        <v>443</v>
       </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D101" t="s">
-        <v>348</v>
+        <v>250</v>
       </c>
       <c r="E101" t="s">
-        <v>348</v>
+        <v>250</v>
       </c>
       <c r="F101" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>

--- a/QALD9-Plus-testing/zero-shot-entity-aligned/zero-shot-entity-aligned-wikidata-dbpedia/zero_shot_llama_dbpedia_results_analysis.xlsx
+++ b/QALD9-Plus-testing/zero-shot-entity-aligned/zero-shot-entity-aligned-wikidata-dbpedia/zero_shot_llama_dbpedia_results_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\zero-shot-entity-aligned\zero-shot-entity-aligned-wikidata-dbpedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3679BB10-C641-4256-8F4D-CCEC56B7C4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFC50CE-B1A5-4C66-9C54-166E0FF397E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
